--- a/Spreadsheet-ACI-backup.xlsx
+++ b/Spreadsheet-ACI-backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B7CFAC-6AE2-4F66-B820-7AA5AC3F4702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37201BD4-4CE5-46E3-BDF3-314DA3C12D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -35,12 +35,23 @@
     <definedName name="spine_type">formulas!$E$2:$E$5</definedName>
     <definedName name="switch_role">formulas!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="780">
   <si>
     <t>Type</t>
   </si>
@@ -468,9 +479,6 @@
     <t>Inband_VLAN</t>
   </si>
   <si>
-    <t>inband_mgmt</t>
-  </si>
-  <si>
     <t>APIC Inband Management IP's</t>
   </si>
   <si>
@@ -838,9 +846,6 @@
   </si>
   <si>
     <t>add_vrf</t>
-  </si>
-  <si>
-    <t>APIC</t>
   </si>
   <si>
     <t>common</t>
@@ -962,9 +967,6 @@
   </si>
   <si>
     <t>BD_Policy</t>
-  </si>
-  <si>
-    <t>Subnets</t>
   </si>
   <si>
     <t>Subnet_Description</t>
@@ -3117,6 +3119,15 @@
   </si>
   <si>
     <t>https://brahma-apic2.example.com</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>Port_Type</t>
+  </si>
+  <si>
+    <t>inb_subnet</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4300,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -4333,7 +4344,7 @@
     <row r="2" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="66" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -4353,16 +4364,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>32</v>
@@ -4386,25 +4397,25 @@
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E4" s="54">
         <v>65501</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H4" s="33">
         <v>5555555</v>
@@ -4422,25 +4433,25 @@
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E5" s="57">
         <v>65502</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H5" s="44">
         <v>5555555</v>
@@ -4618,7 +4629,7 @@
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -4637,7 +4648,7 @@
     <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="68" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
@@ -4657,57 +4668,57 @@
         <v>0</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C19" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="G19" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="H19" s="51" t="s">
         <v>729</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="I19" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="J19" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="K19" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="L19" s="51" t="s">
         <v>733</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="M19" s="51" t="s">
         <v>734</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="N19" s="51" t="s">
         <v>735</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="M19" s="51" t="s">
-        <v>737</v>
-      </c>
-      <c r="N19" s="51" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -4840,8 +4851,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,7 +4860,7 @@
     <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="4" customWidth="1"/>
@@ -4860,7 +4871,7 @@
     <col min="12" max="12" width="15.28515625" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" style="4" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="4" customWidth="1"/>
     <col min="18" max="18" width="11" style="4" customWidth="1"/>
@@ -4872,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -4895,7 +4906,7 @@
     <row r="2" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -4921,97 +4932,97 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="M3" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="N3" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="P3" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>312</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="35">
         <v>56</v>
@@ -5020,44 +5031,44 @@
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="18">
         <v>995</v>
@@ -5066,42 +5077,44 @@
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="C6" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M6" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="35">
         <v>996</v>
@@ -5110,42 +5123,44 @@
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="16"/>
+        <v>313</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="C7" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="18">
         <v>999</v>
@@ -5154,40 +5169,42 @@
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="C8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M8" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="35">
         <v>1</v>
@@ -5196,42 +5213,44 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="16"/>
+        <v>313</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="C9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="18">
         <v>64</v>
@@ -5240,42 +5259,44 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="C10" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M10" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="35">
         <v>80</v>
@@ -5284,40 +5305,42 @@
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="16"/>
+        <v>313</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="C11" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="18">
         <v>87</v>
@@ -5326,42 +5349,44 @@
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="C12" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="35">
         <v>90</v>
@@ -5370,42 +5395,44 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="16"/>
+        <v>313</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="C13" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="18">
         <v>91</v>
@@ -5414,42 +5441,44 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="C14" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M14" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="35">
         <v>110</v>
@@ -5458,40 +5487,42 @@
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="16"/>
+        <v>313</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="C15" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M15" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O15" s="44"/>
       <c r="P15" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q15" s="18">
         <v>136</v>
@@ -5500,44 +5531,44 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M16" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="35">
         <v>168</v>
@@ -5546,44 +5577,44 @@
     </row>
     <row r="17" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="18">
         <v>169</v>
@@ -5592,44 +5623,44 @@
     </row>
     <row r="18" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M18" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="35">
         <v>691</v>
@@ -5638,44 +5669,44 @@
     </row>
     <row r="19" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="18">
         <v>811</v>
@@ -5684,44 +5715,44 @@
     </row>
     <row r="20" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M20" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="35">
         <v>812</v>
@@ -5730,44 +5761,44 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="18">
         <v>997</v>
@@ -5776,44 +5807,44 @@
     </row>
     <row r="22" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M22" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="35">
         <v>998</v>
@@ -5822,44 +5853,44 @@
     </row>
     <row r="23" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O23" s="44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="18">
         <v>3001</v>
@@ -5868,42 +5899,42 @@
     </row>
     <row r="24" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M24" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O24" s="36"/>
       <c r="P24" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="35">
         <v>3003</v>
@@ -5912,44 +5943,44 @@
     </row>
     <row r="25" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M25" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O25" s="44" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="18">
         <v>3004</v>
@@ -5958,42 +5989,42 @@
     </row>
     <row r="26" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M26" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O26" s="36"/>
       <c r="P26" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="35">
         <v>3006</v>
@@ -6002,42 +6033,42 @@
     </row>
     <row r="27" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M27" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="O27" s="44"/>
       <c r="P27" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q27" s="18">
         <v>3007</v>
@@ -6046,42 +6077,42 @@
     </row>
     <row r="28" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M28" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O28" s="36"/>
       <c r="P28" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="35">
         <v>3011</v>
@@ -6090,42 +6121,42 @@
     </row>
     <row r="29" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M29" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O29" s="44"/>
       <c r="P29" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="18">
         <v>3019</v>
@@ -6134,44 +6165,44 @@
     </row>
     <row r="30" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M30" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q30" s="35">
         <v>3103</v>
@@ -6180,44 +6211,44 @@
     </row>
     <row r="31" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O31" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="18">
         <v>3910</v>
@@ -6226,44 +6257,44 @@
     </row>
     <row r="32" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M32" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q32" s="35">
         <v>3960</v>
@@ -6272,44 +6303,44 @@
     </row>
     <row r="33" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q33" s="18">
         <v>3961</v>
@@ -6318,44 +6349,44 @@
     </row>
     <row r="34" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M34" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O34" s="36" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q34" s="35">
         <v>3962</v>
@@ -6364,44 +6395,44 @@
     </row>
     <row r="35" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M35" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O35" s="44" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q35" s="18">
         <v>3963</v>
@@ -6410,44 +6441,44 @@
     </row>
     <row r="36" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M36" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="35">
         <v>3964</v>
@@ -6456,44 +6487,44 @@
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M37" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O37" s="44" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q37" s="18">
         <v>3965</v>
@@ -6502,44 +6533,44 @@
     </row>
     <row r="38" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M38" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="35">
         <v>3966</v>
@@ -6548,44 +6579,44 @@
     </row>
     <row r="39" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M39" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q39" s="18">
         <v>3967</v>
@@ -6594,44 +6625,44 @@
     </row>
     <row r="40" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M40" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q40" s="35">
         <v>201</v>
@@ -6640,44 +6671,44 @@
     </row>
     <row r="41" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M41" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O41" s="44" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="18">
         <v>202</v>
@@ -6686,44 +6717,44 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M42" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O42" s="36" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q42" s="35">
         <v>203</v>
@@ -6732,42 +6763,42 @@
     </row>
     <row r="43" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M43" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O43" s="44" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q43" s="18">
         <v>204</v>
@@ -6776,42 +6807,42 @@
     </row>
     <row r="44" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M44" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="35">
         <v>205</v>
@@ -6820,42 +6851,42 @@
     </row>
     <row r="45" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>102</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="O45" s="44" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P45" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q45" s="18">
         <v>206</v>
@@ -6864,42 +6895,42 @@
     </row>
     <row r="46" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>266</v>
+        <v>313</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>682</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M46" s="33" t="s">
         <v>102</v>
       </c>
       <c r="N46" s="33" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O46" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="35">
         <v>207</v>
@@ -7220,14 +7251,14 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="C47:C58" xr:uid="{62A2CBCC-8030-489E-B252-C008736F1692}">
       <formula1>"add_app,add_epg,add_both"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="B16:B61" xr:uid="{00000000-0002-0000-0800-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Please Select from the drop down" sqref="B47:B61" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>"APIC,MSO"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="VLAN" error="VLAN should be between 1 and 4094" sqref="Q4:R58" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>1</formula1>
       <formula2>4094</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B15" xr:uid="{C6F15339-3B65-406E-908A-B74B6E69151A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B46" xr:uid="{C6F15339-3B65-406E-908A-B74B6E69151A}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,Grp_A,Grp_B,Grp_C,Grp_D,Grp_E,Grp_F"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7240,8 +7271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7315,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -7309,7 +7340,7 @@
     <row r="2" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -7334,55 +7365,55 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="G3" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="H3" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="I3" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="J3" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="K3" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="L3" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="M3" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="P3" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="R3" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="T3" s="7"/>
     </row>
@@ -7391,81 +7422,81 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="F4" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="G4" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="H4" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="I4" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="J4" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="K4" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="L4" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="M4" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="P4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="Q4" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="R4" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>102</v>
@@ -7493,7 +7524,7 @@
         <v>105</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>102</v>
@@ -7502,24 +7533,24 @@
     </row>
     <row r="6" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -7537,31 +7568,31 @@
         <v>105</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>102</v>
@@ -7589,7 +7620,7 @@
         <v>105</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>102</v>
@@ -7620,7 +7651,7 @@
     </row>
     <row r="10" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -7658,7 +7689,7 @@
     <row r="11" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -7696,7 +7727,7 @@
       <c r="A12" s="84"/>
       <c r="B12" s="86"/>
       <c r="C12" s="88" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
@@ -7717,19 +7748,19 @@
       <c r="T12" s="89"/>
       <c r="U12" s="90"/>
       <c r="V12" s="84" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="W12" s="85"/>
       <c r="X12" s="85"/>
       <c r="Y12" s="85"/>
       <c r="Z12" s="86"/>
       <c r="AA12" s="84" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AB12" s="85"/>
       <c r="AC12" s="86"/>
       <c r="AD12" s="84" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AE12" s="85"/>
       <c r="AF12" s="85"/>
@@ -7739,97 +7770,97 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="S13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="V13" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="U13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="Y13" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="Z13" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="AA13" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="AB13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="AC13" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="AA13" s="7" t="s">
+      <c r="AD13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE13" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="AB13" s="7" t="s">
+      <c r="AF13" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="AC13" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="AD13" s="7" t="s">
+      <c r="AG13" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7837,114 +7868,114 @@
         <v>0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="R14" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="S14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="V14" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="U14" s="7" t="s">
+      <c r="X14" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="Y14" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="Z14" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="AA14" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="AB14" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="AC14" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="AA14" s="7" t="s">
+      <c r="AD14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE14" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="AB14" s="7" t="s">
+      <c r="AF14" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AC14" s="7" t="s">
+      <c r="AG14" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF14" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AG14" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>12</v>
@@ -7953,19 +7984,19 @@
         <v>12</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>12</v>
@@ -8022,16 +8053,16 @@
     </row>
     <row r="16" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>12</v>
@@ -8040,19 +8071,19 @@
         <v>12</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>12</v>
@@ -8109,16 +8140,16 @@
     </row>
     <row r="17" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>14</v>
@@ -8127,19 +8158,19 @@
         <v>12</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>12</v>
@@ -8196,16 +8227,16 @@
     </row>
     <row r="18" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>12</v>
@@ -8214,19 +8245,19 @@
         <v>12</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N18" s="21" t="s">
         <v>12</v>
@@ -8283,16 +8314,16 @@
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>12</v>
@@ -8301,19 +8332,19 @@
         <v>12</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>12</v>
@@ -8370,16 +8401,16 @@
     </row>
     <row r="20" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>14</v>
@@ -8388,19 +8419,19 @@
         <v>12</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N20" s="21" t="s">
         <v>12</v>
@@ -8457,16 +8488,16 @@
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>12</v>
@@ -8475,19 +8506,19 @@
         <v>12</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N21" s="33" t="s">
         <v>12</v>
@@ -8544,16 +8575,16 @@
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>12</v>
@@ -8562,19 +8593,19 @@
         <v>12</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>12</v>
@@ -8631,16 +8662,16 @@
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>14</v>
@@ -8649,19 +8680,19 @@
         <v>12</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N23" s="33" t="s">
         <v>12</v>
@@ -8718,16 +8749,16 @@
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>12</v>
@@ -8736,19 +8767,19 @@
         <v>12</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>12</v>
@@ -8805,16 +8836,16 @@
     </row>
     <row r="25" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>12</v>
@@ -8823,19 +8854,19 @@
         <v>12</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N25" s="33" t="s">
         <v>12</v>
@@ -8892,16 +8923,16 @@
     </row>
     <row r="26" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>14</v>
@@ -8910,19 +8941,19 @@
         <v>12</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N26" s="21" t="s">
         <v>12</v>
@@ -9049,7 +9080,7 @@
     </row>
     <row r="30" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="81" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -9074,7 +9105,7 @@
     <row r="31" spans="1:33" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -9099,30 +9130,30 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="93"/>
       <c r="H32" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -9138,37 +9169,37 @@
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="K33" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -9181,10 +9212,10 @@
     </row>
     <row r="34" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>12</v>
@@ -9203,7 +9234,7 @@
         <v>12</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>12</v>
@@ -9221,10 +9252,10 @@
     </row>
     <row r="35" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>12</v>
@@ -9243,7 +9274,7 @@
         <v>12</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J35" s="21" t="s">
         <v>12</v>
@@ -9393,7 +9424,7 @@
     </row>
     <row r="43" spans="1:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="81" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -9418,7 +9449,7 @@
     <row r="44" spans="1:20" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
@@ -9443,16 +9474,16 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -9474,19 +9505,19 @@
         <v>0</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -9505,7 +9536,7 @@
     </row>
     <row r="47" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>102</v>
@@ -9513,7 +9544,7 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>102</v>
@@ -9557,7 +9588,7 @@
     </row>
     <row r="50" spans="1:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
@@ -9594,7 +9625,7 @@
     <row r="51" spans="1:32" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="68" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C51" s="68"/>
       <c r="D51" s="68"/>
@@ -9631,88 +9662,88 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I52" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="J52" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="K52" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="O52" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="R52" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="P52" s="7" t="s">
+      <c r="S52" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="Q52" s="7" t="s">
+      <c r="T52" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="R52" s="7" t="s">
+      <c r="U52" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="S52" s="7" t="s">
+      <c r="V52" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="T52" s="7" t="s">
+      <c r="W52" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="U52" s="7" t="s">
+      <c r="X52" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y52" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="V52" s="7" t="s">
+      <c r="Z52" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="W52" s="7" t="s">
+      <c r="AA52" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="X52" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y52" s="7" t="s">
+      <c r="AB52" s="50" t="s">
         <v>555</v>
       </c>
-      <c r="Z52" s="7" t="s">
+      <c r="AC52" s="50" t="s">
         <v>556</v>
       </c>
-      <c r="AA52" s="49" t="s">
+      <c r="AD52" s="50" t="s">
         <v>557</v>
-      </c>
-      <c r="AB52" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="AC52" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="AD52" s="50" t="s">
-        <v>560</v>
       </c>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
@@ -9722,106 +9753,106 @@
         <v>0</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="R53" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="N53" s="7" t="s">
+      <c r="S53" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="P53" s="7" t="s">
+      <c r="T53" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="Q53" s="7" t="s">
+      <c r="U53" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="R53" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="S53" s="7" t="s">
+      <c r="V53" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="W53" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="T53" s="7" t="s">
+      <c r="X53" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y53" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="U53" s="7" t="s">
+      <c r="Z53" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA53" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="V53" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="W53" s="7" t="s">
+      <c r="AB53" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="X53" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y53" s="7" t="s">
+      <c r="AC53" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="Z53" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA53" s="7" t="s">
+      <c r="AD53" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="AB53" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="AC53" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="AD53" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
     </row>
     <row r="54" spans="1:32" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -9835,25 +9866,25 @@
         <v>12</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
       <c r="R54" s="33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S54" s="33"/>
       <c r="T54" s="33" t="s">
         <v>87</v>
       </c>
       <c r="U54" s="33" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="V54" s="33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="W54" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="X54" s="33" t="s">
         <v>102</v>
@@ -9873,15 +9904,15 @@
     </row>
     <row r="55" spans="1:32" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -9895,25 +9926,25 @@
         <v>12</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S55" s="21"/>
       <c r="T55" s="21" t="s">
         <v>87</v>
       </c>
       <c r="U55" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="V55" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="W55" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="X55" s="21" t="s">
         <v>102</v>
@@ -10407,127 +10438,127 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C10" s="1">
         <v>9504</v>
@@ -10535,7 +10566,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C11" s="1">
         <v>9508</v>
@@ -10543,7 +10574,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C12" s="1">
         <v>9516</v>
@@ -10551,32 +10582,32 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -10591,7 +10622,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10600,8 +10631,8 @@
     <col min="2" max="2" width="21" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -10612,7 +10643,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -10629,45 +10660,45 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>289</v>
+        <v>778</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>138</v>
@@ -10676,30 +10707,30 @@
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I3" s="35">
         <v>1</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>138</v>
@@ -10708,37 +10739,37 @@
         <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I4" s="18">
         <v>1</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="33" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>132</v>
@@ -10752,23 +10783,23 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>132</v>
@@ -10782,16 +10813,16 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>138</v>
@@ -10800,7 +10831,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>132</v>
@@ -10814,16 +10845,16 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>138</v>
@@ -10832,7 +10863,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>132</v>
@@ -10846,16 +10877,16 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>138</v>
@@ -10864,7 +10895,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>132</v>
@@ -10878,16 +10909,16 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>138</v>
@@ -10896,30 +10927,30 @@
         <v>7</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I10" s="18">
         <v>1</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>138</v>
@@ -10931,27 +10962,27 @@
         <v>139</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I11" s="35">
         <v>1</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>138</v>
@@ -10960,10 +10991,10 @@
         <v>9</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I12" s="18">
         <v>1</v>
@@ -10974,16 +11005,16 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>138</v>
@@ -10995,27 +11026,27 @@
         <v>140</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I13" s="35">
         <v>1</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>138</v>
@@ -11024,30 +11055,30 @@
         <v>9</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I14" s="18">
         <v>1</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>138</v>
@@ -11056,30 +11087,30 @@
         <v>13</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I15" s="35">
         <v>1</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>138</v>
@@ -11088,16 +11119,16 @@
         <v>13</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I16" s="18">
         <v>1</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -11123,7 +11154,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11166,7 +11197,7 @@
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -11185,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>2</v>
@@ -11206,7 +11237,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C4" s="25">
         <v>101</v>
@@ -11287,7 +11318,7 @@
     <row r="10" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -11306,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>5</v>
@@ -11327,7 +11358,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>7</v>
@@ -11363,7 +11394,7 @@
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="69"/>
@@ -11382,10 +11413,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>9</v>
@@ -11405,7 +11436,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
@@ -11428,7 +11459,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>13</v>
@@ -11466,7 +11497,7 @@
     <row r="21" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -11485,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>16</v>
@@ -11508,7 +11539,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>19</v>
@@ -11531,7 +11562,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>20</v>
@@ -11551,7 +11582,7 @@
     </row>
     <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
@@ -11569,7 +11600,7 @@
     <row r="27" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
@@ -11588,10 +11619,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>9</v>
@@ -11613,7 +11644,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>11</v>
@@ -11638,7 +11669,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>13</v>
@@ -11678,7 +11709,7 @@
     <row r="33" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
@@ -11697,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>25</v>
@@ -11732,7 +11763,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C35" s="25">
         <v>25</v>
@@ -11783,7 +11814,7 @@
     <row r="38" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
@@ -11802,13 +11833,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E39" s="51" t="s">
         <v>5</v>
@@ -11827,7 +11858,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>45</v>
@@ -11852,7 +11883,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>47</v>
@@ -11892,7 +11923,7 @@
     <row r="44" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
@@ -11911,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>50</v>
@@ -11934,7 +11965,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>53</v>
@@ -11957,7 +11988,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>55</v>
@@ -11996,7 +12027,7 @@
     <row r="51" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="74" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C51" s="74"/>
       <c r="D51" s="74"/>
@@ -12015,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>58</v>
@@ -12036,7 +12067,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>61</v>
@@ -12075,7 +12106,7 @@
     <row r="56" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
@@ -12094,10 +12125,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>63</v>
@@ -12125,7 +12156,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>46</v>
@@ -12156,7 +12187,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>48</v>
@@ -12203,7 +12234,7 @@
     <row r="62" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -12222,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>74</v>
@@ -12251,7 +12282,7 @@
         <v>79</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>71</v>
@@ -12280,7 +12311,7 @@
         <v>79</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>83</v>
@@ -12309,7 +12340,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>86</v>
@@ -12365,7 +12396,7 @@
     <row r="69" spans="1:26" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -12396,10 +12427,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D70" s="51" t="s">
         <v>89</v>
@@ -12443,7 +12474,7 @@
         <v>101</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>102</v>
@@ -12487,7 +12518,7 @@
     </row>
     <row r="73" spans="1:26" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="70" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -12505,7 +12536,7 @@
     <row r="74" spans="1:26" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -12536,13 +12567,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E75" s="51" t="s">
         <v>107</v>
@@ -12567,7 +12598,7 @@
         <v>110</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>102</v>
@@ -12735,13 +12766,13 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
@@ -12776,7 +12807,7 @@
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -12795,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>114</v>
@@ -12826,7 +12857,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>132</v>
@@ -12835,13 +12866,13 @@
         <v>121</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>121</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>121</v>
@@ -12857,7 +12888,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>122</v>
@@ -12866,7 +12897,7 @@
         <v>122</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>122</v>
@@ -12884,10 +12915,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>121</v>
@@ -12911,10 +12942,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>121</v>
@@ -12938,10 +12969,10 @@
         <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>121</v>
@@ -12965,7 +12996,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>132</v>
@@ -12974,13 +13005,13 @@
         <v>121</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>121</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>121</v>
@@ -12996,7 +13027,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>122</v>
@@ -13005,7 +13036,7 @@
         <v>122</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>122</v>
@@ -13023,10 +13054,10 @@
         <v>120</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>121</v>
@@ -13050,10 +13081,10 @@
         <v>120</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>121</v>
@@ -13122,7 +13153,7 @@
     <row r="17" spans="1:15" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
@@ -13143,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>114</v>
@@ -13180,13 +13211,13 @@
         <v>131</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E19" s="35">
         <v>9000</v>
@@ -13207,7 +13238,7 @@
         <v>137</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
@@ -13217,10 +13248,10 @@
         <v>131</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>133</v>
@@ -13244,7 +13275,7 @@
         <v>137</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -13254,10 +13285,10 @@
         <v>131</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>133</v>
@@ -13281,7 +13312,7 @@
         <v>137</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -13291,10 +13322,10 @@
         <v>131</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>133</v>
@@ -13318,7 +13349,7 @@
         <v>136</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -13490,8 +13521,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:M47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13512,7 +13543,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -13530,7 +13561,7 @@
     <row r="2" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -13549,13 +13580,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
@@ -13569,16 +13600,16 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>142</v>
+        <v>779</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C4" s="25">
         <v>911</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -13592,16 +13623,16 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>142</v>
+        <v>779</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C5" s="18">
         <v>912</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -13615,7 +13646,7 @@
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -13633,7 +13664,7 @@
     <row r="8" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -13652,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>114</v>
@@ -13661,13 +13692,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
@@ -13678,13 +13709,13 @@
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D10" s="35">
         <v>1</v>
@@ -13693,10 +13724,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -13707,13 +13738,13 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
@@ -13722,10 +13753,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -13811,7 +13842,7 @@
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -13829,7 +13860,7 @@
     <row r="19" spans="1:13" s="5" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -13848,10 +13879,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>114</v>
@@ -13860,274 +13891,274 @@
         <v>2</v>
       </c>
       <c r="F20" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="61" t="s">
+      <c r="I20" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="61" t="s">
-        <v>150</v>
-      </c>
       <c r="J20" s="61" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E21" s="35">
         <v>101</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="35">
         <v>1</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I21" s="33">
         <v>9508</v>
       </c>
       <c r="J21" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>156</v>
-      </c>
       <c r="L21" s="33" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E22" s="18">
         <v>201</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="18">
         <v>1</v>
       </c>
       <c r="H22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="K22" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E23" s="35">
         <v>202</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="35">
         <v>1</v>
       </c>
       <c r="H23" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="33" t="s">
-        <v>161</v>
-      </c>
       <c r="J23" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>681</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="I24" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H25" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="33" t="s">
-        <v>161</v>
-      </c>
       <c r="J25" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H26" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>161</v>
-      </c>
       <c r="J26" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14252,7 +14283,7 @@
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
@@ -14275,7 +14306,7 @@
     <row r="37" spans="1:18" s="5" customFormat="1" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -14299,79 +14330,79 @@
         <v>0</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D38" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="F38" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="G38" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="H38" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="I38" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="J38" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="K38" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="L38" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="M38" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="M38" s="61" t="s">
+      <c r="N38" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="N38" s="61" t="s">
+      <c r="O38" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="O38" s="61" t="s">
+      <c r="P38" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="61" t="s">
+      <c r="Q38" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="Q38" s="61" t="s">
+      <c r="R38" s="61" t="s">
         <v>182</v>
-      </c>
-      <c r="R38" s="61" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="E39" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>186</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
@@ -14384,19 +14415,19 @@
     </row>
     <row r="40" spans="1:18" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -14494,7 +14525,7 @@
     </row>
     <row r="46" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -14512,7 +14543,7 @@
     <row r="47" spans="1:18" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -14531,19 +14562,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -14555,16 +14586,16 @@
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C49" s="25">
         <v>201</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E49" s="35">
         <v>201</v>
@@ -14582,16 +14613,16 @@
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C50" s="26">
         <v>201</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E50" s="18">
         <v>201</v>
@@ -14699,7 +14730,7 @@
     </row>
     <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="73"/>
       <c r="C58" s="73"/>
@@ -14717,7 +14748,7 @@
     <row r="59" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="69" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -14736,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>114</v>
@@ -14759,16 +14790,16 @@
     <row r="61" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33"/>
       <c r="B61" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="35">
         <v>201</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -14782,16 +14813,16 @@
     <row r="62" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62" s="18">
         <v>201</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -14806,13 +14837,13 @@
       <c r="A63" s="33"/>
       <c r="B63" s="25"/>
       <c r="C63" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="35">
         <v>202</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -14827,13 +14858,13 @@
       <c r="A64" s="21"/>
       <c r="B64" s="26"/>
       <c r="C64" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D64" s="18">
         <v>202</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -14876,7 +14907,7 @@
     </row>
     <row r="68" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="73"/>
       <c r="C68" s="73"/>
@@ -14894,7 +14925,7 @@
     <row r="69" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="69" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -14913,16 +14944,16 @@
         <v>0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -14936,16 +14967,16 @@
     <row r="71" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -14959,16 +14990,16 @@
     <row r="72" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -14983,13 +15014,13 @@
       <c r="A73" s="33"/>
       <c r="B73" s="25"/>
       <c r="C73" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -15004,13 +15035,13 @@
       <c r="A74" s="21"/>
       <c r="B74" s="26"/>
       <c r="C74" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
@@ -15111,7 +15142,7 @@
   </conditionalFormatting>
   <dataValidations count="18">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"inband_mgmt"</formula1>
+      <formula1>"inb_subnet"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E24:E34 F21:F23" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"unspecified,remote-leaf-wan"</formula1>
@@ -15181,24 +15212,24 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="27.85546875" style="4" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" style="4" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="4" customWidth="1"/>
@@ -15208,7 +15239,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -15228,7 +15259,7 @@
     <row r="2" spans="1:15" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -15249,43 +15280,43 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>51</v>
@@ -15293,13 +15324,13 @@
     </row>
     <row r="4" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D4" s="35">
         <v>0</v>
@@ -15308,25 +15339,25 @@
         <v>15</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="J4" s="35">
         <v>22</v>
       </c>
       <c r="K4" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>216</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>81</v>
@@ -15337,7 +15368,7 @@
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="71"/>
@@ -15355,7 +15386,7 @@
     <row r="8" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -15374,59 +15405,59 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="E10" s="22">
         <v>1812</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="H10" s="22">
         <v>5</v>
@@ -15445,16 +15476,16 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="23">
         <v>1812</v>
@@ -15463,7 +15494,7 @@
         <v>81</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" s="23">
         <v>5</v>
@@ -15483,7 +15514,7 @@
     <row r="12" spans="1:15" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -15501,7 +15532,7 @@
     <row r="14" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -15520,59 +15551,59 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="22">
         <v>49</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="H16" s="22">
         <v>5</v>
@@ -15591,16 +15622,16 @@
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="23">
         <v>49</v>
@@ -15609,7 +15640,7 @@
         <v>81</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" s="23">
         <v>5</v>
@@ -15628,7 +15659,7 @@
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
@@ -15646,7 +15677,7 @@
     <row r="20" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="69" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
@@ -15665,16 +15696,16 @@
         <v>0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -15687,19 +15718,19 @@
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>237</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -15712,17 +15743,17 @@
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -15735,7 +15766,7 @@
     </row>
     <row r="25" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
@@ -15754,7 +15785,7 @@
     <row r="26" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="77" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
@@ -15774,57 +15805,57 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="35">
         <v>48</v>
@@ -15836,7 +15867,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I28" s="35">
         <v>5</v>
@@ -16020,7 +16051,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16040,7 +16071,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -16058,7 +16089,7 @@
     <row r="2" spans="1:13" s="5" customFormat="1" ht="74.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="80" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -16077,10 +16108,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>51</v>
@@ -16097,16 +16128,16 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -16120,16 +16151,16 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -16488,7 +16519,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -16506,7 +16537,7 @@
     <row r="2" spans="1:13" s="5" customFormat="1" ht="165.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="80" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -16525,19 +16556,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
@@ -16549,22 +16580,22 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>267</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>269</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -16576,22 +16607,22 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -16753,7 +16784,7 @@
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -16771,7 +16802,7 @@
     <row r="18" spans="1:13" s="5" customFormat="1" ht="241.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="82" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
@@ -16790,19 +16821,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
@@ -16814,22 +16845,22 @@
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="E20" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="F20" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
@@ -16841,22 +16872,22 @@
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -16870,13 +16901,13 @@
       <c r="A22" s="33"/>
       <c r="B22" s="14"/>
       <c r="C22" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="33"/>
@@ -16891,13 +16922,13 @@
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>81</v>
@@ -16914,13 +16945,13 @@
       <c r="A24" s="33"/>
       <c r="B24" s="14"/>
       <c r="C24" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>81</v>
@@ -17089,7 +17120,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -17107,7 +17138,7 @@
     <row r="2" spans="1:13" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
@@ -17126,22 +17157,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -17152,19 +17183,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="33">
         <v>201</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -17282,7 +17313,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -17300,7 +17331,7 @@
     <row r="14" spans="1:13" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C14" s="83"/>
       <c r="D14" s="83"/>
@@ -17319,16 +17350,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>51</v>
@@ -17343,19 +17374,19 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>

--- a/Spreadsheet-ACI-backup.xlsx
+++ b/Spreadsheet-ACI-backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DC9F0-7D05-4113-86FA-3B225204DD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED56B295-6485-4C93-8E60-BED00994EC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="1158">
   <si>
     <t>Type</t>
   </si>
@@ -4290,6 +4290,9 @@
   </si>
   <si>
     <t>enable</t>
+  </si>
+  <si>
+    <t>Once Again Changed</t>
   </si>
 </sst>
 </file>
@@ -6048,8 +6051,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6204,7 +6207,7 @@
         <v>298</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>299</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>475</v>
@@ -8700,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15852,7 +15855,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -18217,7 +18220,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -22527,7 +22530,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
